--- a/aCCTg. pROGRAm/CRB.xlsx
+++ b/aCCTg. pROGRAm/CRB.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -330,8 +330,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -402,7 +402,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,6 +421,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -595,9 +601,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -606,20 +612,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -649,29 +655,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -760,7 +767,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -795,7 +802,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1007,7 +1014,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,12 +1074,12 @@
       <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
       <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1417,10 +1424,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,7 +1461,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="20"/>
@@ -1464,7 +1471,7 @@
       <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="50" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="20"/>
@@ -1473,7 +1480,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="50" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -1481,7 +1488,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="50" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -1489,7 +1496,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="50" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -1497,7 +1504,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="50" t="s">
         <v>27</v>
       </c>
       <c r="B7" t="s">
@@ -1506,7 +1513,7 @@
       <c r="C7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B8" t="s">
@@ -1515,7 +1522,7 @@
       <c r="C8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="50" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="44" t="s">
@@ -1524,7 +1531,7 @@
       <c r="C9" s="20"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="50" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="44" t="s">
@@ -1617,7 +1624,7 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="50" t="s">
         <v>42</v>
       </c>
       <c r="C23" t="s">
@@ -1635,7 +1642,7 @@
       <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="50" t="s">
         <v>46</v>
       </c>
       <c r="C25" t="s">
@@ -1644,7 +1651,7 @@
       <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="50" t="s">
         <v>45</v>
       </c>
       <c r="C26" t="s">
@@ -1653,7 +1660,7 @@
       <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="50" t="s">
         <v>47</v>
       </c>
       <c r="C27" t="s">
@@ -1798,27 +1805,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="56"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
@@ -1852,34 +1859,34 @@
       <c r="S2" s="41"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="E3" s="56" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="E3" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="24"/>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
       <c r="L3" s="27"/>
-      <c r="M3" s="56" t="s">
+      <c r="M3" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
       <c r="P3" s="27"/>
-      <c r="Q3" s="56" t="s">
+      <c r="Q3" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
@@ -2165,10 +2172,10 @@
         <f>+C15</f>
         <v>500000</v>
       </c>
-      <c r="J17" s="52" t="s">
+      <c r="J17" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="K17" s="52"/>
+      <c r="K17" s="53"/>
       <c r="L17" s="18" t="s">
         <v>72</v>
       </c>
@@ -2298,13 +2305,13 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="46" t="s">
@@ -2352,11 +2359,11 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">

--- a/aCCTg. pROGRAm/CRB.xlsx
+++ b/aCCTg. pROGRAm/CRB.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
   <si>
     <t>sCHEDULe</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>utang ng costumer, credit on sales?yes. Debit on accounts receivalbe - IOU(quantity, amount, date, parties involved), charge INVOICE</t>
+  </si>
+  <si>
+    <t>DIVIDEND (income)</t>
   </si>
 </sst>
 </file>
@@ -1421,13 +1424,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1775,6 +1778,16 @@
         <v>61</v>
       </c>
       <c r="F41" s="20"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aCCTg. pROGRAm/CRB.xlsx
+++ b/aCCTg. pROGRAm/CRB.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="104">
   <si>
     <t>sCHEDULe</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>DIVIDEND (income)</t>
+  </si>
+  <si>
+    <t>INVESTMENT</t>
   </si>
 </sst>
 </file>
@@ -1424,13 +1427,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A44" sqref="A44"/>
+      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,7 +1546,7 @@
       <c r="C10" s="20"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="44" t="s">
@@ -1785,9 +1788,15 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="50" t="s">
         <v>102</v>
       </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aCCTg. pROGRAm/CRB.xlsx
+++ b/aCCTg. pROGRAm/CRB.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
   <si>
     <t>sCHEDULe</t>
   </si>
@@ -1429,11 +1429,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1783,20 +1783,18 @@
       <c r="F41" s="20"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>55</v>
+      <c r="A42" s="50" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
-        <v>102</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B43" s="20"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="B44" s="20"/>
+      <c r="B44" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
